--- a/swings/2021-11-22/BINANCE_SPOT_AXS_USDT.xlsx
+++ b/swings/2021-11-22/BINANCE_SPOT_AXS_USDT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N145"/>
+  <dimension ref="A1:O145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,6 +499,11 @@
           <t>SymbolDb</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>swing_price</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -551,6 +556,7 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -605,6 +611,9 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O3" t="n">
+        <v>127.55</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -659,6 +668,9 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O4" t="n">
+        <v>130.21</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -711,6 +723,7 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -763,6 +776,7 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -815,6 +829,7 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -867,6 +882,7 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -919,6 +935,7 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -973,6 +990,9 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O10" t="n">
+        <v>127.84</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1027,6 +1047,9 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O11" t="n">
+        <v>129.52</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1079,6 +1102,7 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1131,6 +1155,7 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1183,6 +1208,7 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1235,6 +1261,7 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1289,6 +1316,9 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O16" t="n">
+        <v>127.05</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1341,6 +1371,7 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1395,6 +1426,9 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O18" t="n">
+        <v>128.75</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1447,6 +1481,7 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1501,6 +1536,9 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O20" t="n">
+        <v>127.38</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1555,6 +1593,9 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O21" t="n">
+        <v>128.25</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1607,6 +1648,7 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1661,6 +1703,9 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O23" t="n">
+        <v>126.25</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1715,6 +1760,9 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O24" t="n">
+        <v>127.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1767,6 +1815,7 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1821,6 +1870,9 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O26" t="n">
+        <v>126.3</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1873,6 +1925,7 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1927,6 +1980,9 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O28" t="n">
+        <v>127.67</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1981,6 +2037,9 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O29" t="n">
+        <v>126.63</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -2035,6 +2094,9 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O30" t="n">
+        <v>127.43</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -2087,6 +2149,7 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -2139,6 +2202,7 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -2193,6 +2257,9 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O33" t="n">
+        <v>125.87</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -2245,6 +2312,7 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -2297,6 +2365,7 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -2349,6 +2418,7 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -2403,6 +2473,9 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O37" t="n">
+        <v>128.7</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -2457,6 +2530,9 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O38" t="n">
+        <v>127.85</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2511,6 +2587,9 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O39" t="n">
+        <v>128.19</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2563,6 +2642,7 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2615,6 +2695,7 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2669,6 +2750,9 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O42" t="n">
+        <v>127.33</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2721,6 +2805,7 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2775,6 +2860,9 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O44" t="n">
+        <v>128.96</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2829,6 +2917,9 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O45" t="n">
+        <v>128.24</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2881,6 +2972,7 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2935,6 +3027,9 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O47" t="n">
+        <v>129.38</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2989,6 +3084,9 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O48" t="n">
+        <v>128.63</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -3043,6 +3141,9 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O49" t="n">
+        <v>129.69</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -3095,6 +3196,7 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -3149,6 +3251,9 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O51" t="n">
+        <v>128.23</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -3203,6 +3308,9 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O52" t="n">
+        <v>129.65</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -3255,6 +3363,7 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -3307,6 +3416,7 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -3361,6 +3471,9 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O55" t="n">
+        <v>128</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -3413,6 +3526,7 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -3467,6 +3581,9 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O57" t="n">
+        <v>130.33</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -3519,6 +3636,7 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -3571,6 +3689,7 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -3625,6 +3744,9 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O60" t="n">
+        <v>128.97</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -3679,6 +3801,9 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O61" t="n">
+        <v>130.5</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -3733,6 +3858,9 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O62" t="n">
+        <v>129.13</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3787,6 +3915,9 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O63" t="n">
+        <v>130.46</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3839,6 +3970,7 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3891,6 +4023,7 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3945,6 +4078,9 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O66" t="n">
+        <v>129.56</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3997,6 +4133,7 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -4049,6 +4186,7 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -4101,6 +4239,7 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -4155,6 +4294,9 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O70" t="n">
+        <v>130.87</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -4209,6 +4351,9 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O71" t="n">
+        <v>130.24</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -4263,6 +4408,9 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O72" t="n">
+        <v>130.86</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -4315,6 +4463,7 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -4369,6 +4518,9 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O74" t="n">
+        <v>129.49</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -4421,6 +4573,7 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -4473,6 +4626,7 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -4525,6 +4679,7 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -4579,6 +4734,9 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O78" t="n">
+        <v>131.69</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -4631,6 +4789,7 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -4683,6 +4842,7 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -4737,6 +4897,9 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O81" t="n">
+        <v>128.01</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -4789,6 +4952,7 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -4843,6 +5007,9 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O83" t="n">
+        <v>132.7</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -4897,6 +5064,9 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O84" t="n">
+        <v>130.92</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -4949,6 +5119,7 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -5003,6 +5174,9 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O86" t="n">
+        <v>132.46</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -5055,6 +5229,7 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -5109,6 +5284,9 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O88" t="n">
+        <v>130.41</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -5163,6 +5341,9 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O89" t="n">
+        <v>131.68</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -5215,6 +5396,7 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -5269,6 +5451,9 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O91" t="n">
+        <v>130.6</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -5323,6 +5508,9 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O92" t="n">
+        <v>131.35</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -5377,6 +5565,9 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O93" t="n">
+        <v>130.65</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -5429,6 +5620,7 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -5481,6 +5673,7 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -5535,6 +5728,9 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O96" t="n">
+        <v>131.68</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -5589,6 +5785,9 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O97" t="n">
+        <v>130.96</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -5643,6 +5842,9 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O98" t="n">
+        <v>131.7</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -5697,6 +5899,9 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O99" t="n">
+        <v>130.72</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -5749,6 +5954,7 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -5801,6 +6007,7 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -5855,6 +6062,9 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O102" t="n">
+        <v>131.87</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -5907,6 +6117,7 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -5961,6 +6172,9 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O104" t="n">
+        <v>130.86</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -6015,6 +6229,9 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O105" t="n">
+        <v>131.57</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -6067,6 +6284,7 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -6121,6 +6339,9 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O107" t="n">
+        <v>130.5</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -6175,6 +6396,9 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O108" t="n">
+        <v>131.16</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -6227,6 +6451,7 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -6279,6 +6504,7 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -6331,6 +6557,7 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -6383,6 +6610,7 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -6435,6 +6663,7 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -6487,6 +6716,7 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -6539,6 +6769,7 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -6593,6 +6824,9 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O116" t="n">
+        <v>128.61</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -6647,6 +6881,9 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O117" t="n">
+        <v>129.98</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -6699,6 +6936,7 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -6753,6 +6991,9 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O119" t="n">
+        <v>127.33</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -6807,6 +7048,9 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O120" t="n">
+        <v>128.31</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -6859,6 +7103,7 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -6913,6 +7158,9 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O122" t="n">
+        <v>126.74</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -6965,6 +7213,7 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -7019,6 +7268,9 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O124" t="n">
+        <v>128.43</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -7071,6 +7323,7 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -7123,6 +7376,7 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -7175,6 +7429,7 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -7227,6 +7482,7 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -7281,6 +7537,9 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O129" t="n">
+        <v>126.9</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -7333,6 +7592,7 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -7385,6 +7645,7 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -7439,6 +7700,9 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O132" t="n">
+        <v>128.46</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -7493,6 +7757,9 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O133" t="n">
+        <v>127.34</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -7547,6 +7814,9 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O134" t="n">
+        <v>128.8</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -7599,6 +7869,7 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -7653,6 +7924,9 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O136" t="n">
+        <v>127.78</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -7705,6 +7979,7 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -7757,6 +8032,7 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -7811,6 +8087,9 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O139" t="n">
+        <v>128.9</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -7863,6 +8142,7 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -7915,6 +8195,7 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -7967,6 +8248,7 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -8019,6 +8301,7 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -8073,6 +8356,9 @@
           <t>AXSUSDT</t>
         </is>
       </c>
+      <c r="O144" t="n">
+        <v>127.67</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -8126,6 +8412,9 @@
         <is>
           <t>AXSUSDT</t>
         </is>
+      </c>
+      <c r="O145" t="n">
+        <v>128.31</v>
       </c>
     </row>
   </sheetData>
